--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>2.225595753319777</v>
+        <v>3.437861405291333</v>
       </c>
       <c r="R2">
-        <v>20.030361779878</v>
+        <v>30.940752647622</v>
       </c>
       <c r="S2">
-        <v>0.005720782256238345</v>
+        <v>0.003872386658163861</v>
       </c>
       <c r="T2">
-        <v>0.005720782256238345</v>
+        <v>0.003872386658163861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H3">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>21.25011555980578</v>
+        <v>24.91975062440622</v>
       </c>
       <c r="R3">
-        <v>191.251040038252</v>
+        <v>224.277755619656</v>
       </c>
       <c r="S3">
-        <v>0.05462235621910096</v>
+        <v>0.02806945902304157</v>
       </c>
       <c r="T3">
-        <v>0.05462235621910096</v>
+        <v>0.02806945902304157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H4">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>14.85963797860133</v>
+        <v>18.38704506708356</v>
       </c>
       <c r="R4">
-        <v>133.736741807412</v>
+        <v>165.483405603752</v>
       </c>
       <c r="S4">
-        <v>0.03819595411938842</v>
+        <v>0.02071105830247923</v>
       </c>
       <c r="T4">
-        <v>0.03819595411938841</v>
+        <v>0.02071105830247923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H5">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>1.338600728560667</v>
+        <v>2.314407480431333</v>
       </c>
       <c r="R5">
-        <v>12.047406557046</v>
+        <v>20.829667323882</v>
       </c>
       <c r="S5">
-        <v>0.003440806033492323</v>
+        <v>0.002606934833086282</v>
       </c>
       <c r="T5">
-        <v>0.003440806033492322</v>
+        <v>0.002606934833086282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H6">
         <v>12.47932</v>
       </c>
       <c r="I6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>5.734144932257777</v>
+        <v>7.553154187506668</v>
       </c>
       <c r="R6">
-        <v>51.60730439032</v>
+        <v>67.97838768756002</v>
       </c>
       <c r="S6">
-        <v>0.01473933194481883</v>
+        <v>0.008507827993803813</v>
       </c>
       <c r="T6">
-        <v>0.01473933194481883</v>
+        <v>0.008507827993803813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H7">
         <v>12.47932</v>
       </c>
       <c r="I7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
-        <v>54.74994381409777</v>
+        <v>54.74994381409778</v>
       </c>
       <c r="R7">
         <v>492.74949432688</v>
       </c>
       <c r="S7">
-        <v>0.1407319845189936</v>
+        <v>0.06167001137236559</v>
       </c>
       <c r="T7">
-        <v>0.1407319845189936</v>
+        <v>0.0616700113723656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H8">
         <v>12.47932</v>
       </c>
       <c r="I8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>38.28517271525333</v>
+        <v>40.39726157388445</v>
       </c>
       <c r="R8">
-        <v>344.56655443728</v>
+        <v>363.5753541649601</v>
       </c>
       <c r="S8">
-        <v>0.09841011622157436</v>
+        <v>0.04550323538473453</v>
       </c>
       <c r="T8">
-        <v>0.09841011622157435</v>
+        <v>0.04550323538473453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H9">
         <v>12.47932</v>
       </c>
       <c r="I9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>3.448843112026666</v>
+        <v>5.084869484706667</v>
       </c>
       <c r="R9">
-        <v>31.03958800824</v>
+        <v>45.76382536236</v>
       </c>
       <c r="S9">
-        <v>0.008865078238220889</v>
+        <v>0.005727566771823954</v>
       </c>
       <c r="T9">
-        <v>0.008865078238220888</v>
+        <v>0.005727566771823955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H10">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I10">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J10">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>0.5041589734955555</v>
+        <v>2.251929186585667</v>
       </c>
       <c r="R10">
-        <v>4.53743076146</v>
+        <v>20.267362679271</v>
       </c>
       <c r="S10">
-        <v>0.001295915354616651</v>
+        <v>0.002536559654162425</v>
       </c>
       <c r="T10">
-        <v>0.001295915354616651</v>
+        <v>0.002536559654162425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H11">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I11">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J11">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>4.813738717515555</v>
+        <v>16.32337873398978</v>
       </c>
       <c r="R11">
-        <v>43.32364845764</v>
+        <v>146.910408605908</v>
       </c>
       <c r="S11">
-        <v>0.01237347393400321</v>
+        <v>0.01838655680777832</v>
       </c>
       <c r="T11">
-        <v>0.01237347393400321</v>
+        <v>0.01838655680777833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H12">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I12">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J12">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>3.366118855426667</v>
+        <v>12.04420962924844</v>
       </c>
       <c r="R12">
-        <v>30.29506969884</v>
+        <v>108.397886663236</v>
       </c>
       <c r="S12">
-        <v>0.008652439685774033</v>
+        <v>0.01356652615624509</v>
       </c>
       <c r="T12">
-        <v>0.008652439685774033</v>
+        <v>0.01356652615624509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H13">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I13">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J13">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>0.3032300759133333</v>
+        <v>1.516024394355667</v>
       </c>
       <c r="R13">
-        <v>2.72907068322</v>
+        <v>13.644219549201</v>
       </c>
       <c r="S13">
-        <v>0.0007794377012335881</v>
+        <v>0.001707640869151425</v>
       </c>
       <c r="T13">
-        <v>0.0007794377012335881</v>
+        <v>0.001707640869151425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H14">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I14">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J14">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>13.35996742902289</v>
+        <v>48.96971234925</v>
       </c>
       <c r="R14">
-        <v>120.239706861206</v>
+        <v>440.72741114325</v>
       </c>
       <c r="S14">
-        <v>0.03434112618963774</v>
+        <v>0.05515919299815058</v>
       </c>
       <c r="T14">
-        <v>0.03434112618963774</v>
+        <v>0.05515919299815056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H15">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I15">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J15">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>127.5617332206449</v>
+        <v>354.962831839</v>
       </c>
       <c r="R15">
-        <v>1148.055598985804</v>
+        <v>3194.665486551</v>
       </c>
       <c r="S15">
-        <v>0.3278910372178547</v>
+        <v>0.3998280244927216</v>
       </c>
       <c r="T15">
-        <v>0.3278910372178547</v>
+        <v>0.3998280244927217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H16">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I16">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J16">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>89.20051141590265</v>
+        <v>261.909426163</v>
       </c>
       <c r="R16">
-        <v>802.804602743124</v>
+        <v>2357.184835467</v>
       </c>
       <c r="S16">
-        <v>0.2292854406260909</v>
+        <v>0.2950132212892413</v>
       </c>
       <c r="T16">
-        <v>0.2292854406260909</v>
+        <v>0.2950132212892413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H17">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I17">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J17">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>8.035449432971332</v>
+        <v>32.96696847675</v>
       </c>
       <c r="R17">
-        <v>72.319044896742</v>
+        <v>296.7027162907499</v>
       </c>
       <c r="S17">
-        <v>0.02065471973896148</v>
+        <v>0.03713379739305022</v>
       </c>
       <c r="T17">
-        <v>0.02065471973896148</v>
+        <v>0.03713379739305022</v>
       </c>
     </row>
   </sheetData>
